--- a/Code/Results/Cases/Case_2_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.06527895051276</v>
+        <v>14.83835186183086</v>
       </c>
       <c r="C2">
-        <v>16.50119933675138</v>
+        <v>9.23881429251133</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.12633385657892</v>
+        <v>22.4311056418522</v>
       </c>
       <c r="F2">
-        <v>39.10419136757432</v>
+        <v>41.31237264083453</v>
       </c>
       <c r="G2">
-        <v>33.05693784379197</v>
+        <v>30.45625978056599</v>
       </c>
       <c r="H2">
-        <v>9.923199901579043</v>
+        <v>14.18117724149123</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.581308675439972</v>
+        <v>7.907545675285167</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.83748132069249</v>
+        <v>16.41873126027958</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.46896982680014</v>
+        <v>14.21895140864909</v>
       </c>
       <c r="C3">
-        <v>15.40905896460023</v>
+        <v>8.653321671085424</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.02901869378423</v>
+        <v>22.24519652872732</v>
       </c>
       <c r="F3">
-        <v>37.06092860644302</v>
+        <v>41.01159636432503</v>
       </c>
       <c r="G3">
-        <v>31.2495823332876</v>
+        <v>30.16374241973622</v>
       </c>
       <c r="H3">
-        <v>9.744401317943316</v>
+        <v>14.2131078255066</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.604330990063104</v>
+        <v>7.934231685557175</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.07171318283225</v>
+        <v>16.48619248077645</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.43503231026797</v>
+        <v>13.82756096988738</v>
       </c>
       <c r="C4">
-        <v>14.70279076000537</v>
+        <v>8.271744426313541</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.33564447524692</v>
+        <v>22.13486707949318</v>
       </c>
       <c r="F4">
-        <v>35.79279588257022</v>
+        <v>40.83918225546569</v>
       </c>
       <c r="G4">
-        <v>30.14596977523017</v>
+        <v>29.99843427120287</v>
       </c>
       <c r="H4">
-        <v>9.646672406782359</v>
+        <v>14.2367525506876</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.622139537068621</v>
+        <v>7.951934677526477</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.2185537389824</v>
+        <v>16.52964571338262</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.00001717737447</v>
+        <v>13.6655312040554</v>
       </c>
       <c r="C5">
-        <v>14.40593562457068</v>
+        <v>8.110695898619259</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.04840438420138</v>
+        <v>22.09090639268269</v>
       </c>
       <c r="F5">
-        <v>35.27314998735022</v>
+        <v>40.77206648729512</v>
       </c>
       <c r="G5">
-        <v>29.69827764446464</v>
+        <v>29.93473730037935</v>
       </c>
       <c r="H5">
-        <v>9.609777249996283</v>
+        <v>14.24739846758438</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.630272595468984</v>
+        <v>7.959479813818358</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.27918090888107</v>
+        <v>16.54786571664449</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.92695293177591</v>
+        <v>13.63848108017719</v>
       </c>
       <c r="C6">
-        <v>14.35609494260473</v>
+        <v>8.083618624786377</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.00043400566009</v>
+        <v>22.0836682221131</v>
       </c>
       <c r="F6">
-        <v>35.18670785181987</v>
+        <v>40.76111352118131</v>
       </c>
       <c r="G6">
-        <v>29.62407845307365</v>
+        <v>29.92438386734174</v>
       </c>
       <c r="H6">
-        <v>9.60382470127367</v>
+        <v>14.24922708763863</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.631674651749307</v>
+        <v>7.960752661846166</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.28929645049273</v>
+        <v>16.55092213143395</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.42922111577677</v>
+        <v>13.82538569122558</v>
       </c>
       <c r="C7">
-        <v>14.69882397527642</v>
+        <v>8.269594949300828</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.33178924561225</v>
+        <v>22.13427011340404</v>
       </c>
       <c r="F7">
-        <v>35.78579858218284</v>
+        <v>40.83826430221803</v>
       </c>
       <c r="G7">
-        <v>30.13992305012286</v>
+        <v>29.99756029515122</v>
       </c>
       <c r="H7">
-        <v>9.646163100996056</v>
+        <v>14.23689204094932</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.622245736488161</v>
+        <v>7.952035093990653</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.21936814831829</v>
+        <v>16.52988935776443</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.52594497819945</v>
+        <v>14.62722234460613</v>
       </c>
       <c r="C8">
-        <v>16.13199006305985</v>
+        <v>9.041518495088923</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>19.75218056478431</v>
+        <v>22.36623540414017</v>
       </c>
       <c r="F8">
-        <v>38.40277385456649</v>
+        <v>41.20615791402141</v>
       </c>
       <c r="G8">
-        <v>32.43276230822189</v>
+        <v>30.35247842304625</v>
       </c>
       <c r="H8">
-        <v>9.858990014762544</v>
+        <v>14.19134553619074</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.588454908000378</v>
+        <v>7.916473336963582</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.91763496641976</v>
+        <v>16.44157112906894</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.21789327013736</v>
+        <v>16.10221970692436</v>
       </c>
       <c r="C9">
-        <v>18.66312255384585</v>
+        <v>10.38023309081922</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.374260926867</v>
+        <v>22.84962840895919</v>
       </c>
       <c r="F9">
-        <v>43.40993878644433</v>
+        <v>42.02194287715781</v>
       </c>
       <c r="G9">
-        <v>36.96123264073533</v>
+        <v>31.15826510220174</v>
       </c>
       <c r="H9">
-        <v>10.37613801559119</v>
+        <v>14.1342970729259</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.553632042688923</v>
+        <v>7.85720641652514</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.34856912906578</v>
+        <v>16.28442965013956</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.68509823921667</v>
+        <v>17.11567299725478</v>
       </c>
       <c r="C10">
-        <v>20.3588308577514</v>
+        <v>11.25755666207094</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.19526266189301</v>
+        <v>23.21965259701924</v>
       </c>
       <c r="F10">
-        <v>46.99915227236469</v>
+        <v>42.67446116367862</v>
       </c>
       <c r="G10">
-        <v>40.31637912532948</v>
+        <v>31.81167561817378</v>
       </c>
       <c r="H10">
-        <v>10.82227910286917</v>
+        <v>14.11233347833209</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.550647148398239</v>
+        <v>7.820065726546447</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.942362392002066</v>
+        <v>16.17866325740617</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.75679021268434</v>
+        <v>17.55966509660999</v>
       </c>
       <c r="C11">
-        <v>21.09632650159753</v>
+        <v>11.63374806786294</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.00068912428869</v>
+        <v>23.39066035967643</v>
       </c>
       <c r="F11">
-        <v>48.61229760140734</v>
+        <v>42.98182429779027</v>
       </c>
       <c r="G11">
-        <v>41.8959183345096</v>
+        <v>32.12093221708577</v>
       </c>
       <c r="H11">
-        <v>11.04073040401403</v>
+        <v>14.10672551998571</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.555026076625651</v>
+        <v>7.80456429881087</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.759726486607114</v>
+        <v>16.13262964729274</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.15555987422893</v>
+        <v>17.72522174518693</v>
       </c>
       <c r="C12">
-        <v>21.37088137895134</v>
+        <v>11.77292030726875</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.30244171465934</v>
+        <v>23.45575442565703</v>
       </c>
       <c r="F12">
-        <v>49.22047941844142</v>
+        <v>43.09963677736697</v>
       </c>
       <c r="G12">
-        <v>42.49321017586105</v>
+        <v>32.23964875946537</v>
       </c>
       <c r="H12">
-        <v>11.12577655537475</v>
+        <v>14.10523583401518</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.557584716382014</v>
+        <v>7.798895188101946</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.690841776763063</v>
+        <v>16.11549549844681</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.06998770463504</v>
+        <v>17.68968240016191</v>
       </c>
       <c r="C13">
-        <v>21.31195827202166</v>
+        <v>11.74309291771262</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.23759676691613</v>
+        <v>23.4417210352295</v>
       </c>
       <c r="F13">
-        <v>49.0896122598205</v>
+        <v>43.07420208192359</v>
       </c>
       <c r="G13">
-        <v>42.36460544567164</v>
+        <v>32.21401147374933</v>
       </c>
       <c r="H13">
-        <v>11.1073554142621</v>
+        <v>14.10552841780138</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.556992354055057</v>
+        <v>7.800107187781172</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.705665607727832</v>
+        <v>16.11917242096508</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.78973728652923</v>
+        <v>17.573337765173</v>
       </c>
       <c r="C14">
-        <v>21.11900791277644</v>
+        <v>11.64526358821735</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.02557901851595</v>
+        <v>23.39600920990109</v>
       </c>
       <c r="F14">
-        <v>48.66238557339634</v>
+        <v>42.99148887299254</v>
       </c>
       <c r="G14">
-        <v>41.945073132609</v>
+        <v>32.13066757767525</v>
       </c>
       <c r="H14">
-        <v>11.04768006636691</v>
+        <v>14.10659023873099</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.55521807761915</v>
+        <v>7.804093867676015</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.754053968970396</v>
+        <v>16.13121405011017</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.61716390130981</v>
+        <v>17.50173479653967</v>
       </c>
       <c r="C15">
-        <v>21.00021064499577</v>
+        <v>11.58491305659016</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.8952919917079</v>
+        <v>23.36805185694283</v>
       </c>
       <c r="F15">
-        <v>48.40035400201199</v>
+        <v>42.94100684401783</v>
       </c>
       <c r="G15">
-        <v>41.68799602169078</v>
+        <v>32.07982278435949</v>
       </c>
       <c r="H15">
-        <v>11.01143271274977</v>
+        <v>14.10732329002156</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.554250887797881</v>
+        <v>7.806562007384244</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.783728129772138</v>
+        <v>16.13862863646704</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.61406032121985</v>
+        <v>17.08630327852962</v>
       </c>
       <c r="C16">
-        <v>20.30996461852439</v>
+        <v>11.23251160981999</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.14216782903995</v>
+        <v>23.20852666507696</v>
       </c>
       <c r="F16">
-        <v>46.89334378022534</v>
+        <v>42.65457822453176</v>
       </c>
       <c r="G16">
-        <v>40.21301955907678</v>
+        <v>31.79169659245754</v>
       </c>
       <c r="H16">
-        <v>10.80832259812843</v>
+        <v>14.11278849422235</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.550482732959547</v>
+        <v>7.821106874133668</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.95433845966039</v>
+        <v>16.18171340383635</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.9858705671184</v>
+        <v>16.82699257306655</v>
       </c>
       <c r="C17">
-        <v>19.87794512503118</v>
+        <v>11.01046491211897</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.67429447028436</v>
+        <v>23.11131563009564</v>
       </c>
       <c r="F17">
-        <v>45.96387796097474</v>
+        <v>42.48149491085589</v>
       </c>
       <c r="G17">
-        <v>39.32704389639296</v>
+        <v>31.61793404053922</v>
       </c>
       <c r="H17">
-        <v>10.68775597597868</v>
+        <v>14.11726660940963</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.549692293570462</v>
+        <v>7.830387069154686</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.05952901007165</v>
+        <v>16.20867631009784</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.61977010389942</v>
+        <v>16.67624685449589</v>
       </c>
       <c r="C18">
-        <v>19.62625866802164</v>
+        <v>10.88059264142109</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.40301871517384</v>
+        <v>23.05565778265221</v>
       </c>
       <c r="F18">
-        <v>45.42741218709729</v>
+        <v>42.38293884011375</v>
       </c>
       <c r="G18">
-        <v>38.82737486858217</v>
+        <v>31.51912898973356</v>
       </c>
       <c r="H18">
-        <v>10.61986217510587</v>
+        <v>14.12025470006814</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.549772767013981</v>
+        <v>7.835855978077387</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.1202361764261</v>
+        <v>16.22438052277007</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.49498682980246</v>
+        <v>16.62493674122281</v>
       </c>
       <c r="C19">
-        <v>19.540487895695</v>
+        <v>10.83624936427266</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.31079628945499</v>
+        <v>23.03685832382657</v>
       </c>
       <c r="F19">
-        <v>45.24545224555213</v>
+        <v>42.34974345603318</v>
       </c>
       <c r="G19">
-        <v>38.65821380533937</v>
+        <v>31.48587444723439</v>
       </c>
       <c r="H19">
-        <v>10.59712127946984</v>
+        <v>14.12133712903534</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.549889715140869</v>
+        <v>7.837730173535159</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.14082670109916</v>
+        <v>16.22973137976226</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.05323581477971</v>
+        <v>16.85476288880599</v>
       </c>
       <c r="C20">
-        <v>19.92426449201287</v>
+        <v>11.03432531630635</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.7243244600335</v>
+        <v>23.12163783142391</v>
       </c>
       <c r="F20">
-        <v>46.0630132620953</v>
+        <v>42.49981741954884</v>
       </c>
       <c r="G20">
-        <v>39.41953062436639</v>
+        <v>31.63631438205074</v>
       </c>
       <c r="H20">
-        <v>10.70043946529812</v>
+        <v>14.11674719756794</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.549720526891824</v>
+        <v>7.829385595856975</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.04831039132418</v>
+        <v>16.20578580151939</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.87224323379457</v>
+        <v>17.60758174825295</v>
       </c>
       <c r="C21">
-        <v>21.17580884757563</v>
+        <v>11.67408745001461</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.08794113212414</v>
+        <v>23.40942711941662</v>
       </c>
       <c r="F21">
-        <v>48.78794343720106</v>
+        <v>43.01574594776076</v>
       </c>
       <c r="G21">
-        <v>42.06832051370745</v>
+        <v>32.15510504162098</v>
       </c>
       <c r="H21">
-        <v>11.06514431120226</v>
+        <v>14.10626112507476</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.555714156636795</v>
+        <v>7.802917425737925</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.739833922177956</v>
+        <v>16.12766906051566</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.02005846452694</v>
+        <v>18.08454684126863</v>
       </c>
       <c r="C22">
-        <v>21.96634705208876</v>
+        <v>12.07307718719632</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.96029260843547</v>
+        <v>23.59945648895455</v>
       </c>
       <c r="F22">
-        <v>50.55337073442811</v>
+        <v>43.36117095840618</v>
       </c>
       <c r="G22">
-        <v>43.80554528354125</v>
+        <v>32.50347805993211</v>
       </c>
       <c r="H22">
-        <v>11.31709338288383</v>
+        <v>14.10310423710951</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.564919211735316</v>
+        <v>7.786790427732253</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.539817573917984</v>
+        <v>16.0783503488261</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.41111970361846</v>
+        <v>17.83139464678122</v>
       </c>
       <c r="C23">
-        <v>21.5468745229611</v>
+        <v>11.86187559995633</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.49639499212898</v>
+        <v>23.49787259950886</v>
       </c>
       <c r="F23">
-        <v>49.61246535023189</v>
+        <v>43.17608911001135</v>
       </c>
       <c r="G23">
-        <v>42.87868261004524</v>
+        <v>32.31673324493497</v>
       </c>
       <c r="H23">
-        <v>11.18134596197328</v>
+        <v>14.10444983354669</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.559495923877424</v>
+        <v>7.795290358811837</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.646435479784333</v>
+        <v>16.10451434394107</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.02279540826642</v>
+        <v>16.842213104098</v>
       </c>
       <c r="C24">
-        <v>19.90333383595475</v>
+        <v>11.02354492665703</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.70171303538854</v>
+        <v>23.11697044388634</v>
       </c>
       <c r="F24">
-        <v>46.01820075317858</v>
+        <v>42.49153084141113</v>
       </c>
       <c r="G24">
-        <v>39.37771771009135</v>
+        <v>31.62800121486159</v>
       </c>
       <c r="H24">
-        <v>10.69470083896773</v>
+        <v>14.11698073570161</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.549706102127273</v>
+        <v>7.829837945821098</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.05338160456879</v>
+        <v>16.2070919683768</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.263007050852</v>
+        <v>15.71483962791932</v>
       </c>
       <c r="C25">
-        <v>18.00768109417339</v>
+        <v>10.03677268932705</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.68322339001648</v>
+        <v>22.71605935419419</v>
       </c>
       <c r="F25">
-        <v>42.07059145501366</v>
+        <v>41.79158037466685</v>
       </c>
       <c r="G25">
-        <v>35.73449756915204</v>
+        <v>30.92906491082926</v>
       </c>
       <c r="H25">
-        <v>10.22498526217063</v>
+        <v>14.14624546644998</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.559347988576852</v>
+        <v>7.872116798070413</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.5002883009571</v>
+        <v>16.32523264807015</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.83835186183086</v>
+        <v>23.06527895051272</v>
       </c>
       <c r="C2">
-        <v>9.23881429251133</v>
+        <v>16.50119933675134</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.4311056418522</v>
+        <v>20.12633385657897</v>
       </c>
       <c r="F2">
-        <v>41.31237264083453</v>
+        <v>39.10419136757432</v>
       </c>
       <c r="G2">
-        <v>30.45625978056599</v>
+        <v>33.05693784379194</v>
       </c>
       <c r="H2">
-        <v>14.18117724149123</v>
+        <v>9.923199901579029</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.907545675285167</v>
+        <v>4.581308675439946</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.41873126027958</v>
+        <v>10.8374813206925</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.21895140864909</v>
+        <v>21.46896982679992</v>
       </c>
       <c r="C3">
-        <v>8.653321671085424</v>
+        <v>15.40905896460035</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.24519652872732</v>
+        <v>19.0290186937842</v>
       </c>
       <c r="F3">
-        <v>41.01159636432503</v>
+        <v>37.06092860644299</v>
       </c>
       <c r="G3">
-        <v>30.16374241973622</v>
+        <v>31.24958233328766</v>
       </c>
       <c r="H3">
-        <v>14.2131078255066</v>
+        <v>9.744401317943353</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.934231685557175</v>
+        <v>4.604330990063128</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.48619248077645</v>
+        <v>11.07171318283232</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.82756096988738</v>
+        <v>20.43503231026794</v>
       </c>
       <c r="C4">
-        <v>8.271744426313541</v>
+        <v>14.70279076000533</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.13486707949318</v>
+        <v>18.33564447524685</v>
       </c>
       <c r="F4">
-        <v>40.83918225546569</v>
+        <v>35.79279588257022</v>
       </c>
       <c r="G4">
-        <v>29.99843427120287</v>
+        <v>30.14596977523027</v>
       </c>
       <c r="H4">
-        <v>14.2367525506876</v>
+        <v>9.646672406782445</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.951934677526477</v>
+        <v>4.622139537068705</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.52964571338262</v>
+        <v>11.21855373898243</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.6655312040554</v>
+        <v>20.00001717737448</v>
       </c>
       <c r="C5">
-        <v>8.110695898619259</v>
+        <v>14.4059356245706</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.09090639268269</v>
+        <v>18.04840438420143</v>
       </c>
       <c r="F5">
-        <v>40.77206648729512</v>
+        <v>35.27314998735022</v>
       </c>
       <c r="G5">
-        <v>29.93473730037935</v>
+        <v>29.69827764446459</v>
       </c>
       <c r="H5">
-        <v>14.24739846758438</v>
+        <v>9.609777249996283</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.959479813818358</v>
+        <v>4.630272595469047</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.54786571664449</v>
+        <v>11.27918090888104</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.63848108017719</v>
+        <v>19.92695293177587</v>
       </c>
       <c r="C6">
-        <v>8.083618624786377</v>
+        <v>14.35609494260483</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.0836682221131</v>
+        <v>18.00043400566015</v>
       </c>
       <c r="F6">
-        <v>40.76111352118131</v>
+        <v>35.18670785181988</v>
       </c>
       <c r="G6">
-        <v>29.92438386734174</v>
+        <v>29.62407845307355</v>
       </c>
       <c r="H6">
-        <v>14.24922708763863</v>
+        <v>9.603824701273695</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.960752661846166</v>
+        <v>4.631674651749387</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.55092213143395</v>
+        <v>11.2892964504928</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.82538569122558</v>
+        <v>20.42922111577677</v>
       </c>
       <c r="C7">
-        <v>8.269594949300828</v>
+        <v>14.69882397527646</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.13427011340404</v>
+        <v>18.33178924561231</v>
       </c>
       <c r="F7">
-        <v>40.83826430221803</v>
+        <v>35.78579858218283</v>
       </c>
       <c r="G7">
-        <v>29.99756029515122</v>
+        <v>30.13992305012282</v>
       </c>
       <c r="H7">
-        <v>14.23689204094932</v>
+        <v>9.646163100995961</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.952035093990653</v>
+        <v>4.622245736488218</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.52988935776443</v>
+        <v>11.21936814831826</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.62722234460613</v>
+        <v>22.52594497819949</v>
       </c>
       <c r="C8">
-        <v>9.041518495088923</v>
+        <v>16.13199006305985</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.36623540414017</v>
+        <v>19.75218056478427</v>
       </c>
       <c r="F8">
-        <v>41.20615791402141</v>
+        <v>38.40277385456649</v>
       </c>
       <c r="G8">
-        <v>30.35247842304625</v>
+        <v>32.43276230822197</v>
       </c>
       <c r="H8">
-        <v>14.19134553619074</v>
+        <v>9.858990014762595</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.916473336963582</v>
+        <v>4.588454908000306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.44157112906894</v>
+        <v>10.91763496641979</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.10221970692436</v>
+        <v>26.21789327013742</v>
       </c>
       <c r="C9">
-        <v>10.38023309081922</v>
+        <v>18.6631225538458</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.84962840895919</v>
+        <v>22.37426092686698</v>
       </c>
       <c r="F9">
-        <v>42.02194287715781</v>
+        <v>43.40993878644433</v>
       </c>
       <c r="G9">
-        <v>31.15826510220174</v>
+        <v>36.9612326407353</v>
       </c>
       <c r="H9">
-        <v>14.1342970729259</v>
+        <v>10.37613801559116</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.85720641652514</v>
+        <v>4.553632042688923</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.28442965013956</v>
+        <v>10.34856912906575</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.11567299725478</v>
+        <v>28.68509823921654</v>
       </c>
       <c r="C10">
-        <v>11.25755666207094</v>
+        <v>20.35883085775132</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.21965259701924</v>
+        <v>24.19526266189299</v>
       </c>
       <c r="F10">
-        <v>42.67446116367862</v>
+        <v>46.99915227236464</v>
       </c>
       <c r="G10">
-        <v>31.81167561817378</v>
+        <v>40.31637912532934</v>
       </c>
       <c r="H10">
-        <v>14.11233347833209</v>
+        <v>10.82227910286919</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.820065726546447</v>
+        <v>4.550647148398252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.17866325740617</v>
+        <v>9.942362392002197</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55966509660999</v>
+        <v>29.75679021268434</v>
       </c>
       <c r="C11">
-        <v>11.63374806786294</v>
+        <v>21.09632650159763</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.39066035967643</v>
+        <v>25.00068912428867</v>
       </c>
       <c r="F11">
-        <v>42.98182429779027</v>
+        <v>48.61229760140736</v>
       </c>
       <c r="G11">
-        <v>32.12093221708577</v>
+        <v>41.89591833450965</v>
       </c>
       <c r="H11">
-        <v>14.10672551998571</v>
+        <v>11.04073040401403</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.80456429881087</v>
+        <v>4.555026076625639</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.13262964729274</v>
+        <v>9.759726486607139</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.72522174518693</v>
+        <v>30.15555987422884</v>
       </c>
       <c r="C12">
-        <v>11.77292030726875</v>
+        <v>21.37088137895134</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.45575442565703</v>
+        <v>25.30244171465935</v>
       </c>
       <c r="F12">
-        <v>43.09963677736697</v>
+        <v>49.22047941844142</v>
       </c>
       <c r="G12">
-        <v>32.23964875946537</v>
+        <v>42.49321017586098</v>
       </c>
       <c r="H12">
-        <v>14.10523583401518</v>
+        <v>11.12577655537481</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.798895188101946</v>
+        <v>4.557584716382035</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.11549549844681</v>
+        <v>9.690841776763156</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.68968240016191</v>
+        <v>30.06998770463503</v>
       </c>
       <c r="C13">
-        <v>11.74309291771262</v>
+        <v>21.31195827202155</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.4417210352295</v>
+        <v>25.23759676691614</v>
       </c>
       <c r="F13">
-        <v>43.07420208192359</v>
+        <v>49.08961225982048</v>
       </c>
       <c r="G13">
-        <v>32.21401147374933</v>
+        <v>42.36460544567154</v>
       </c>
       <c r="H13">
-        <v>14.10552841780138</v>
+        <v>11.1073554142621</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.800107187781172</v>
+        <v>4.556992354055017</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.11917242096508</v>
+        <v>9.70566560772787</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.573337765173</v>
+        <v>29.78973728652927</v>
       </c>
       <c r="C14">
-        <v>11.64526358821735</v>
+        <v>21.1190079127766</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.39600920990109</v>
+        <v>25.02557901851591</v>
       </c>
       <c r="F14">
-        <v>42.99148887299254</v>
+        <v>48.66238557339634</v>
       </c>
       <c r="G14">
-        <v>32.13066757767525</v>
+        <v>41.94507313260912</v>
       </c>
       <c r="H14">
-        <v>14.10659023873099</v>
+        <v>11.04768006636689</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.804093867676015</v>
+        <v>4.555218077619139</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.13121405011017</v>
+        <v>9.754053968970361</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.50173479653967</v>
+        <v>29.6171639013099</v>
       </c>
       <c r="C15">
-        <v>11.58491305659016</v>
+        <v>21.00021064499585</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.36805185694283</v>
+        <v>24.89529199170789</v>
       </c>
       <c r="F15">
-        <v>42.94100684401783</v>
+        <v>48.40035400201209</v>
       </c>
       <c r="G15">
-        <v>32.07982278435949</v>
+        <v>41.68799602169101</v>
       </c>
       <c r="H15">
-        <v>14.10732329002156</v>
+        <v>11.0114327127498</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.806562007384244</v>
+        <v>4.554250887797827</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.13862863646704</v>
+        <v>9.783728129772093</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.08630327852962</v>
+        <v>28.61406032121976</v>
       </c>
       <c r="C16">
-        <v>11.23251160981999</v>
+        <v>20.30996461852438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.20852666507696</v>
+        <v>24.14216782903996</v>
       </c>
       <c r="F16">
-        <v>42.65457822453176</v>
+        <v>46.89334378022532</v>
       </c>
       <c r="G16">
-        <v>31.79169659245754</v>
+        <v>40.21301955907666</v>
       </c>
       <c r="H16">
-        <v>14.11278849422235</v>
+        <v>10.80832259812846</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.821106874133668</v>
+        <v>4.550482732959555</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.18171340383635</v>
+        <v>9.954338459660493</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.82699257306655</v>
+        <v>27.98587056711845</v>
       </c>
       <c r="C17">
-        <v>11.01046491211897</v>
+        <v>19.87794512503122</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.11131563009564</v>
+        <v>23.67429447028435</v>
       </c>
       <c r="F17">
-        <v>42.48149491085589</v>
+        <v>45.96387796097477</v>
       </c>
       <c r="G17">
-        <v>31.61793404053922</v>
+        <v>39.32704389639304</v>
       </c>
       <c r="H17">
-        <v>14.11726660940963</v>
+        <v>10.68775597597867</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.830387069154686</v>
+        <v>4.549692293570422</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.20867631009784</v>
+        <v>10.05952901007161</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.67624685449589</v>
+        <v>27.61977010389932</v>
       </c>
       <c r="C18">
-        <v>10.88059264142109</v>
+        <v>19.62625866802164</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.05565778265221</v>
+        <v>23.40301871517383</v>
       </c>
       <c r="F18">
-        <v>42.38293884011375</v>
+        <v>45.42741218709731</v>
       </c>
       <c r="G18">
-        <v>31.51912898973356</v>
+        <v>38.82737486858215</v>
       </c>
       <c r="H18">
-        <v>14.12025470006814</v>
+        <v>10.61986217510591</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.835855978077387</v>
+        <v>4.549772767014003</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.22438052277007</v>
+        <v>10.12023617642619</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.62493674122281</v>
+        <v>27.49498682980249</v>
       </c>
       <c r="C19">
-        <v>10.83624936427266</v>
+        <v>19.54048789569502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.03685832382657</v>
+        <v>23.31079628945499</v>
       </c>
       <c r="F19">
-        <v>42.34974345603318</v>
+        <v>45.24545224555216</v>
       </c>
       <c r="G19">
-        <v>31.48587444723439</v>
+        <v>38.65821380533939</v>
       </c>
       <c r="H19">
-        <v>14.12133712903534</v>
+        <v>10.59712127946983</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.837730173535159</v>
+        <v>4.549889715140849</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.22973137976226</v>
+        <v>10.14082670109919</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.85476288880599</v>
+        <v>28.05323581477971</v>
       </c>
       <c r="C20">
-        <v>11.03432531630635</v>
+        <v>19.92426449201285</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.12163783142391</v>
+        <v>23.72432446003353</v>
       </c>
       <c r="F20">
-        <v>42.49981741954884</v>
+        <v>46.06301326209532</v>
       </c>
       <c r="G20">
-        <v>31.63631438205074</v>
+        <v>39.41953062436637</v>
       </c>
       <c r="H20">
-        <v>14.11674719756794</v>
+        <v>10.7004394652981</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.829385595856975</v>
+        <v>4.549720526891896</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.20578580151939</v>
+        <v>10.04831039132421</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.60758174825295</v>
+        <v>29.8722432337945</v>
       </c>
       <c r="C21">
-        <v>11.67408745001461</v>
+        <v>21.17580884757567</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.40942711941662</v>
+        <v>25.08794113212414</v>
       </c>
       <c r="F21">
-        <v>43.01574594776076</v>
+        <v>48.78794343720105</v>
       </c>
       <c r="G21">
-        <v>32.15510504162098</v>
+        <v>42.06832051370744</v>
       </c>
       <c r="H21">
-        <v>14.10626112507476</v>
+        <v>11.06514431120229</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.802917425737925</v>
+        <v>4.555714156636861</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.12766906051566</v>
+        <v>9.73983392217805</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.08454684126863</v>
+        <v>31.02005846452692</v>
       </c>
       <c r="C22">
-        <v>12.07307718719632</v>
+        <v>21.96634705208878</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.59945648895455</v>
+        <v>25.96029260843547</v>
       </c>
       <c r="F22">
-        <v>43.36117095840618</v>
+        <v>50.55337073442809</v>
       </c>
       <c r="G22">
-        <v>32.50347805993211</v>
+        <v>43.80554528354122</v>
       </c>
       <c r="H22">
-        <v>14.10310423710951</v>
+        <v>11.31709338288385</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.786790427732253</v>
+        <v>4.564919211735282</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.0783503488261</v>
+        <v>9.539817573918018</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.83139464678122</v>
+        <v>30.41111970361846</v>
       </c>
       <c r="C23">
-        <v>11.86187559995633</v>
+        <v>21.54687452296103</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.49787259950886</v>
+        <v>25.49639499212897</v>
       </c>
       <c r="F23">
-        <v>43.17608911001135</v>
+        <v>49.61246535023189</v>
       </c>
       <c r="G23">
-        <v>32.31673324493497</v>
+        <v>42.8786826100453</v>
       </c>
       <c r="H23">
-        <v>14.10444983354669</v>
+        <v>11.18134596197325</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.795290358811837</v>
+        <v>4.559495923877435</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.10451434394107</v>
+        <v>9.646435479784268</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.842213104098</v>
+        <v>28.02279540826641</v>
       </c>
       <c r="C24">
-        <v>11.02354492665703</v>
+        <v>19.90333383595482</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.11697044388634</v>
+        <v>23.70171303538852</v>
       </c>
       <c r="F24">
-        <v>42.49153084141113</v>
+        <v>46.01820075317855</v>
       </c>
       <c r="G24">
-        <v>31.62800121486159</v>
+        <v>39.37771771009136</v>
       </c>
       <c r="H24">
-        <v>14.11698073570161</v>
+        <v>10.69470083896769</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.829837945821098</v>
+        <v>4.549706102127236</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.2070919683768</v>
+        <v>10.05338160456876</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.71483962791932</v>
+        <v>25.26300705085206</v>
       </c>
       <c r="C25">
-        <v>10.03677268932705</v>
+        <v>18.0076810941734</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.71605935419419</v>
+        <v>21.68322339001649</v>
       </c>
       <c r="F25">
-        <v>41.79158037466685</v>
+        <v>42.07059145501366</v>
       </c>
       <c r="G25">
-        <v>30.92906491082926</v>
+        <v>35.73449756915205</v>
       </c>
       <c r="H25">
-        <v>14.14624546644998</v>
+        <v>10.22498526217063</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.872116798070413</v>
+        <v>4.559347988576803</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.32523264807015</v>
+        <v>10.50028830095706</v>
       </c>
       <c r="O25">
         <v>0</v>
